--- a/medicine/Enfance/Cecil_Bødker/Cecil_Bødker.xlsx
+++ b/medicine/Enfance/Cecil_Bødker/Cecil_Bødker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cecil_B%C3%B8dker</t>
+          <t>Cecil_Bødker</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cecil Skaar Bødker (née le 27 mars 1927 à Fredericia et morte le 19 avril 2020[1]) est une femme de lettres danoise, connue pour son personnage Silas qui a inspiré une série télévisée pour la jeunesse, Silas. Elle est lauréate du prestigieux prix international, le Prix Hans-Christian-Andersen, catégorie Écriture, en 1976.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cecil Skaar Bødker (née le 27 mars 1927 à Fredericia et morte le 19 avril 2020) est une femme de lettres danoise, connue pour son personnage Silas qui a inspiré une série télévisée pour la jeunesse, Silas. Elle est lauréate du prestigieux prix international, le Prix Hans-Christian-Andersen, catégorie Écriture, en 1976.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cecil_B%C3%B8dker</t>
+          <t>Cecil_Bødker</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cecil_B%C3%B8dker</t>
+          <t>Cecil_Bødker</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,9 +551,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1970 : (international) « Honor List »[2], de l' IBBY, pour Silas og den sorte hoppe
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1970 : (international) « Honor List », de l' IBBY, pour Silas og den sorte hoppe
 1976 : Prix Hans-Christian-Andersen, catégorie Écriture
 Elle figure dans le Canon de la culture danoise, catégorie Canon des enfants, pour son ouvrage Silas og den sorte hoppe.
 </t>
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cecil_B%C3%B8dker</t>
+          <t>Cecil_Bødker</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,7 +586,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sur la piste du léopard, Castor Poche Flammarion, 1993.</t>
         </is>
